--- a/atomica/library/combined_databook.xlsx
+++ b/atomica/library/combined_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926983E6-7E17-4E42-91C9-711276D41F06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5FF0F-8B5B-4A10-A546-09CABAA4877B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="52">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -184,6 +184,12 @@
   <si>
     <t>Aging UDT</t>
   </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -270,11 +276,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +321,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2345,9 +2377,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2419,6 +2453,17 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4374,8 +4419,8 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/atomica/library/combined_databook.xlsx
+++ b/atomica/library/combined_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5FF0F-8B5B-4A10-A546-09CABAA4877B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF8A42-2ABA-4B12-A7CC-089A5EA6C6F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,40 +44,10 @@
     <t>Population type</t>
   </si>
   <si>
-    <t>SIR1</t>
-  </si>
-  <si>
-    <t>SIR 1</t>
-  </si>
-  <si>
     <t>sir</t>
   </si>
   <si>
-    <t>SIR2</t>
-  </si>
-  <si>
-    <t>SIR 2</t>
-  </si>
-  <si>
-    <t>SIR3</t>
-  </si>
-  <si>
-    <t>SIR 3</t>
-  </si>
-  <si>
-    <t>UDT1</t>
-  </si>
-  <si>
-    <t>UDT 1</t>
-  </si>
-  <si>
     <t>udt</t>
-  </si>
-  <si>
-    <t>UDT2</t>
-  </si>
-  <si>
-    <t>UDT 2</t>
   </si>
   <si>
     <t>Susceptible</t>
@@ -189,6 +159,36 @@
   </si>
   <si>
     <t>Environment</t>
+  </si>
+  <si>
+    <t>UDT_15-64</t>
+  </si>
+  <si>
+    <t>SIR_0-4</t>
+  </si>
+  <si>
+    <t>SIR_5-14</t>
+  </si>
+  <si>
+    <t>SIR_15-64</t>
+  </si>
+  <si>
+    <t>SIR 0-4</t>
+  </si>
+  <si>
+    <t>SIR 5-14</t>
+  </si>
+  <si>
+    <t>SIR 15-64</t>
+  </si>
+  <si>
+    <t>UDT 0-14</t>
+  </si>
+  <si>
+    <t>UDT 15-64</t>
+  </si>
+  <si>
+    <t>UDT_0-14</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="194">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -1630,30 +1630,6 @@
         <patternFill>
           <bgColor rgb="FFFFA500"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -2380,7 +2356,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,72 +2378,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2492,13 +2469,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -2562,14 +2539,14 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>700</v>
@@ -2632,14 +2609,14 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>700</v>
@@ -2702,14 +2679,14 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>700</v>
@@ -2771,13 +2748,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -2841,14 +2818,14 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -2911,14 +2888,14 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -2981,14 +2958,14 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -3050,13 +3027,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -3120,14 +3097,14 @@
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0.28571428999999998</v>
@@ -3190,14 +3167,14 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0.28571428999999998</v>
@@ -3260,14 +3237,14 @@
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0.28571428999999998</v>
@@ -3329,74 +3306,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="197" priority="13">
+    <cfRule type="expression" dxfId="193" priority="13">
       <formula>COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="14">
+    <cfRule type="expression" dxfId="192" priority="14">
       <formula>AND(COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="195" priority="15">
+    <cfRule type="expression" dxfId="191" priority="15">
       <formula>COUNTIF(E13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="16">
+    <cfRule type="expression" dxfId="190" priority="16">
       <formula>AND(COUNTIF(E13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="193" priority="17">
+    <cfRule type="expression" dxfId="189" priority="17">
       <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="18">
+    <cfRule type="expression" dxfId="188" priority="18">
       <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="191" priority="1">
+    <cfRule type="expression" dxfId="187" priority="1">
       <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="2">
+    <cfRule type="expression" dxfId="186" priority="2">
       <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="189" priority="3">
+    <cfRule type="expression" dxfId="185" priority="3">
       <formula>COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="4">
+    <cfRule type="expression" dxfId="184" priority="4">
       <formula>AND(COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="187" priority="5">
+    <cfRule type="expression" dxfId="183" priority="5">
       <formula>COUNTIF(E4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="6">
+    <cfRule type="expression" dxfId="182" priority="6">
       <formula>AND(COUNTIF(E4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="185" priority="7">
+    <cfRule type="expression" dxfId="181" priority="7">
       <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="8">
+    <cfRule type="expression" dxfId="180" priority="8">
       <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="183" priority="9">
+    <cfRule type="expression" dxfId="179" priority="9">
       <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="10">
+    <cfRule type="expression" dxfId="178" priority="10">
       <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="181" priority="11">
+    <cfRule type="expression" dxfId="177" priority="11">
       <formula>COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="12">
+    <cfRule type="expression" dxfId="176" priority="12">
       <formula>AND(COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3434,13 +3411,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -3456,16 +3433,16 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3474,16 +3451,16 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3492,16 +3469,16 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3509,13 +3486,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -3531,16 +3508,16 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3549,16 +3526,16 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3567,16 +3544,16 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3584,13 +3561,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -3606,16 +3583,16 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3624,16 +3601,16 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3642,16 +3619,16 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3659,13 +3636,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -3681,16 +3658,16 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
         <v>1.6E-2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3699,16 +3676,16 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>1.6E-2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3717,16 +3694,16 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>1.6E-2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3734,13 +3711,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -3756,16 +3733,16 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3774,16 +3751,16 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3792,16 +3769,16 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3809,66 +3786,66 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="expression" dxfId="179" priority="13">
+    <cfRule type="expression" dxfId="175" priority="13">
       <formula>COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="14">
+    <cfRule type="expression" dxfId="174" priority="14">
       <formula>AND(COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="177" priority="19">
+    <cfRule type="expression" dxfId="173" priority="19">
       <formula>COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="20">
+    <cfRule type="expression" dxfId="172" priority="20">
       <formula>AND(COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="175" priority="21">
+    <cfRule type="expression" dxfId="171" priority="21">
       <formula>COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="22">
+    <cfRule type="expression" dxfId="170" priority="22">
       <formula>AND(COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="173" priority="23">
+    <cfRule type="expression" dxfId="169" priority="23">
       <formula>COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="24">
+    <cfRule type="expression" dxfId="168" priority="24">
       <formula>AND(COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="expression" dxfId="171" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="2">
+    <cfRule type="expression" dxfId="166" priority="2">
       <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="169" priority="25">
+    <cfRule type="expression" dxfId="165" priority="25">
       <formula>COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="26">
+    <cfRule type="expression" dxfId="164" priority="26">
       <formula>AND(COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="167" priority="27">
+    <cfRule type="expression" dxfId="163" priority="27">
       <formula>COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="28">
+    <cfRule type="expression" dxfId="162" priority="28">
       <formula>AND(COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="165" priority="29">
+    <cfRule type="expression" dxfId="161" priority="29">
       <formula>COUNTIF(E24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="30">
+    <cfRule type="expression" dxfId="160" priority="30">
       <formula>AND(COUNTIF(E24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3936,13 +3913,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -3958,14 +3935,14 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>6000</v>
@@ -3976,14 +3953,14 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>6000</v>
@@ -3993,13 +3970,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -4015,14 +3992,14 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
         <v>3600</v>
@@ -4033,14 +4010,14 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>3600</v>
@@ -4050,13 +4027,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -4072,14 +4049,14 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>1800</v>
@@ -4090,14 +4067,14 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>1800</v>
@@ -4185,13 +4162,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -4207,14 +4184,14 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>1000</v>
@@ -4225,14 +4202,14 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>1000</v>
@@ -4242,13 +4219,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -4264,14 +4241,14 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
         <v>490</v>
@@ -4282,14 +4259,14 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>490</v>
@@ -4299,13 +4276,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -4321,14 +4298,14 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>240</v>
@@ -4339,14 +4316,14 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>240</v>
@@ -4442,83 +4419,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4526,10 +4503,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -4545,7 +4522,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>IF($B$5="Y","---&gt;","...")</f>
@@ -4553,10 +4530,10 @@
       </c>
       <c r="C10" s="1" t="str">
         <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -4572,7 +4549,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>IF($C$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>IF($C$5="Y","---&gt;","...")</f>
@@ -4580,10 +4557,10 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>IF($C$5="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -4599,7 +4576,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>IF($D$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>IF($D$5="Y","---&gt;","...")</f>
@@ -4607,10 +4584,10 @@
       </c>
       <c r="C12" s="1" t="str">
         <f>IF($D$5="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -4626,7 +4603,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>IF($B$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>IF($B$6="Y","---&gt;","...")</f>
@@ -4634,10 +4611,10 @@
       </c>
       <c r="C13" s="1" t="str">
         <f>IF($B$6="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -4653,7 +4630,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>IF($C$6="Y","---&gt;","...")</f>
@@ -4661,10 +4638,10 @@
       </c>
       <c r="C14" s="1" t="str">
         <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -4680,7 +4657,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>IF($D$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>IF($D$6="Y","---&gt;","...")</f>
@@ -4688,10 +4665,10 @@
       </c>
       <c r="C15" s="1" t="str">
         <f>IF($D$6="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -4707,7 +4684,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>IF($B$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>IF($B$7="Y","---&gt;","...")</f>
@@ -4715,10 +4692,10 @@
       </c>
       <c r="C16" s="1" t="str">
         <f>IF($B$7="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4734,7 +4711,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>IF($C$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>IF($C$7="Y","---&gt;","...")</f>
@@ -4742,10 +4719,10 @@
       </c>
       <c r="C17" s="1" t="str">
         <f>IF($C$7="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -4761,7 +4738,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>IF($D$7="Y","---&gt;","...")</f>
@@ -4769,10 +4746,10 @@
       </c>
       <c r="C18" s="1" t="str">
         <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -4793,70 +4770,70 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4864,10 +4841,10 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
@@ -4883,7 +4860,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>IF($B$24="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>IF($B$24="Y","---&gt;","...")</f>
@@ -4891,10 +4868,10 @@
       </c>
       <c r="C29" s="1" t="str">
         <f>IF($B$24="Y",'Population Definitions'!$A$5,"...")</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -4910,7 +4887,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>IF($C$24="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>IF($C$24="Y","---&gt;","...")</f>
@@ -4918,10 +4895,10 @@
       </c>
       <c r="C30" s="1" t="str">
         <f>IF($C$24="Y",'Population Definitions'!$A$6,"...")</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3">
         <v>0.5</v>
@@ -4937,7 +4914,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>IF($B$25="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>IF($B$25="Y","---&gt;","...")</f>
@@ -4945,10 +4922,10 @@
       </c>
       <c r="C31" s="1" t="str">
         <f>IF($B$25="Y",'Population Definitions'!$A$5,"...")</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -4964,7 +4941,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>IF($C$25="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>IF($C$25="Y","---&gt;","...")</f>
@@ -4972,10 +4949,10 @@
       </c>
       <c r="C32" s="1" t="str">
         <f>IF($C$25="Y",'Population Definitions'!$A$6,"...")</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -4991,7 +4968,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>IF($B$26="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>IF($B$26="Y","---&gt;","...")</f>
@@ -4999,10 +4976,10 @@
       </c>
       <c r="C33" s="1" t="str">
         <f>IF($B$26="Y",'Population Definitions'!$A$5,"...")</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -5018,7 +4995,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>IF($C$26="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>IF($C$26="Y","---&gt;","...")</f>
@@ -5026,10 +5003,10 @@
       </c>
       <c r="C34" s="1" t="str">
         <f>IF($C$26="Y",'Population Definitions'!$A$6,"...")</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -5415,83 +5392,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
-        <v>SIR1</v>
+        <v>SIR_0-4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
-        <v>SIR2</v>
+        <v>SIR_5-14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
-        <v>SIR3</v>
+        <v>SIR_15-64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5499,10 +5476,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -5730,58 +5707,58 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
-        <v>UDT1</v>
+        <v>UDT_0-14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
-        <v>UDT2</v>
+        <v>UDT_15-64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5789,10 +5766,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">

--- a/atomica/library/combined_databook.xlsx
+++ b/atomica/library/combined_databook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF8A42-2ABA-4B12-A7CC-089A5EA6C6F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C86A2F4-06E1-2945-828E-AF93D8D3D8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="24720" windowHeight="16700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,118 +83,118 @@
     <t>Transmission probability per contact</t>
   </si>
   <si>
+    <t>Number of contacts annually</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>Average duration of infections (years)</t>
+  </si>
+  <si>
+    <t>Duration (years)</t>
+  </si>
+  <si>
+    <t>Death rate for infected people</t>
+  </si>
+  <si>
+    <t>Death rate for susceptible people</t>
+  </si>
+  <si>
+    <t>All people with condition</t>
+  </si>
+  <si>
+    <t>Diagnosed people</t>
+  </si>
+  <si>
+    <t>Currently treated</t>
+  </si>
+  <si>
+    <t>Annual number of new diagnoses</t>
+  </si>
+  <si>
+    <t>Annual number newly initiated onto treatment</t>
+  </si>
+  <si>
+    <t>Annual number lost to follow-up</t>
+  </si>
+  <si>
+    <t>From population type</t>
+  </si>
+  <si>
+    <t>To population type</t>
+  </si>
+  <si>
+    <t>sir_ctc</t>
+  </si>
+  <si>
+    <t>SIR weightings</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>udt_ctc</t>
+  </si>
+  <si>
+    <t>UDT weightings</t>
+  </si>
+  <si>
+    <t>aging_sir</t>
+  </si>
+  <si>
+    <t>Aging SIR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>aging_udt</t>
+  </si>
+  <si>
+    <t>Aging UDT</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>UDT_15-64</t>
+  </si>
+  <si>
+    <t>SIR_0-4</t>
+  </si>
+  <si>
+    <t>SIR_5-14</t>
+  </si>
+  <si>
+    <t>SIR_15-64</t>
+  </si>
+  <si>
+    <t>SIR 0-4</t>
+  </si>
+  <si>
+    <t>SIR 5-14</t>
+  </si>
+  <si>
+    <t>SIR 15-64</t>
+  </si>
+  <si>
+    <t>UDT 0-14</t>
+  </si>
+  <si>
+    <t>UDT 15-64</t>
+  </si>
+  <si>
+    <t>UDT_0-14</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
+  </si>
+  <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>Number of contacts annually</t>
-  </si>
-  <si>
-    <t>N.A.</t>
-  </si>
-  <si>
-    <t>Average duration of infections (years)</t>
-  </si>
-  <si>
-    <t>Duration (years)</t>
-  </si>
-  <si>
-    <t>Death rate for infected people</t>
-  </si>
-  <si>
-    <t>Probability (per year)</t>
-  </si>
-  <si>
-    <t>Death rate for susceptible people</t>
-  </si>
-  <si>
-    <t>All people with condition</t>
-  </si>
-  <si>
-    <t>Diagnosed people</t>
-  </si>
-  <si>
-    <t>Currently treated</t>
-  </si>
-  <si>
-    <t>Annual number of new diagnoses</t>
-  </si>
-  <si>
-    <t>Annual number newly initiated onto treatment</t>
-  </si>
-  <si>
-    <t>Annual number lost to follow-up</t>
-  </si>
-  <si>
-    <t>From population type</t>
-  </si>
-  <si>
-    <t>To population type</t>
-  </si>
-  <si>
-    <t>sir_ctc</t>
-  </si>
-  <si>
-    <t>SIR weightings</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>udt_ctc</t>
-  </si>
-  <si>
-    <t>UDT weightings</t>
-  </si>
-  <si>
-    <t>aging_sir</t>
-  </si>
-  <si>
-    <t>Aging SIR</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>aging_udt</t>
-  </si>
-  <si>
-    <t>Aging UDT</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>UDT_15-64</t>
-  </si>
-  <si>
-    <t>SIR_0-4</t>
-  </si>
-  <si>
-    <t>SIR_5-14</t>
-  </si>
-  <si>
-    <t>SIR_15-64</t>
-  </si>
-  <si>
-    <t>SIR 0-4</t>
-  </si>
-  <si>
-    <t>SIR 5-14</t>
-  </si>
-  <si>
-    <t>SIR 15-64</t>
-  </si>
-  <si>
-    <t>UDT 0-14</t>
-  </si>
-  <si>
-    <t>UDT 15-64</t>
-  </si>
-  <si>
-    <t>UDT_0-14</t>
   </si>
 </sst>
 </file>
@@ -329,7 +335,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="194">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -339,11 +350,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -352,166 +358,6 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -872,6 +718,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF98E0FA"/>
         </patternFill>
       </fill>
@@ -892,9 +745,7 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
+        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -913,209 +764,6 @@
       <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1481,13 +1129,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
@@ -1497,355 +1138,6 @@
         <patternFill>
           <bgColor rgb="FF98E0FA"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98E0FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -2030,9 +1322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2070,9 +1362,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2105,26 +1397,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2157,26 +1432,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2355,17 +1613,17 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2376,70 +1634,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2459,15 +1717,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +1794,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
@@ -2606,7 +1864,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
@@ -2676,7 +1934,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
@@ -2746,7 +2004,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2815,7 +2073,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
@@ -2885,7 +2143,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
@@ -2955,7 +2213,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
@@ -3025,7 +2283,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +2352,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
@@ -3164,7 +2422,7 @@
         <v>3.54528E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
@@ -3234,7 +2492,7 @@
         <v>3.54528E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
@@ -3305,76 +2563,28 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="193" priority="13">
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="expression" dxfId="79" priority="1">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="2">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C9">
+    <cfRule type="expression" dxfId="77" priority="7">
+      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="8">
+      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="expression" dxfId="75" priority="13">
       <formula>COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="14">
+    <cfRule type="expression" dxfId="74" priority="14">
       <formula>AND(COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="191" priority="15">
-      <formula>COUNTIF(E13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="16">
-      <formula>AND(COUNTIF(E13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="189" priority="17">
-      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="18">
-      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="187" priority="1">
-      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="2">
-      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="185" priority="3">
-      <formula>COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="4">
-      <formula>AND(COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="183" priority="5">
-      <formula>COUNTIF(E4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="6">
-      <formula>AND(COUNTIF(E4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="181" priority="7">
-      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="8">
-      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="179" priority="9">
-      <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="10">
-      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="177" priority="11">
-      <formula>COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="12">
-      <formula>AND(COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3396,20 +2606,20 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3430,13 +2640,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>8.0000000000000002E-3</v>
@@ -3448,13 +2658,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>8.0000000000000002E-3</v>
@@ -3466,13 +2676,13 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>8.0000000000000002E-3</v>
@@ -3484,9 +2694,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -3505,13 +2715,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>80</v>
@@ -3523,13 +2733,13 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>80</v>
@@ -3541,13 +2751,13 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>80</v>
@@ -3559,9 +2769,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -3580,13 +2790,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -3598,13 +2808,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -3616,13 +2826,13 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -3634,9 +2844,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -3655,13 +2865,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3">
         <v>1.6E-2</v>
@@ -3673,13 +2883,13 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
         <v>1.6E-2</v>
@@ -3691,13 +2901,13 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3">
         <v>1.6E-2</v>
@@ -3709,9 +2919,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -3730,13 +2940,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3">
         <v>8.0000000000000002E-3</v>
@@ -3748,13 +2958,13 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>8.0000000000000002E-3</v>
@@ -3766,13 +2976,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3">
         <v>8.0000000000000002E-3</v>
@@ -3785,106 +2995,58 @@
       <c r="G24" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="expression" dxfId="73" priority="1">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="2">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C9">
+    <cfRule type="expression" dxfId="71" priority="7">
+      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="8">
+      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="expression" dxfId="175" priority="13">
+    <cfRule type="expression" dxfId="69" priority="13">
       <formula>COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="68" priority="14">
       <formula>AND(COUNTIF(E12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="173" priority="19">
+  <conditionalFormatting sqref="C17:C19">
+    <cfRule type="expression" dxfId="67" priority="19">
       <formula>COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="20">
+    <cfRule type="expression" dxfId="66" priority="20">
       <formula>AND(COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="171" priority="21">
-      <formula>COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="22">
-      <formula>AND(COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="169" priority="23">
-      <formula>COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="24">
-      <formula>AND(COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4">
-    <cfRule type="expression" dxfId="167" priority="1">
-      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="2">
-      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="165" priority="25">
+  <conditionalFormatting sqref="C22:C24">
+    <cfRule type="expression" dxfId="65" priority="25">
       <formula>COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="26">
+    <cfRule type="expression" dxfId="64" priority="26">
       <formula>AND(COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="163" priority="27">
-      <formula>COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="28">
-      <formula>AND(COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="161" priority="29">
-      <formula>COUNTIF(E24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="30">
-      <formula>AND(COUNTIF(E24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="159" priority="7">
-      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="8">
-      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="157" priority="9">
-      <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="10">
-      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="155" priority="11">
-      <formula>COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="12">
-      <formula>AND(COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B9" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"N.A."</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B14" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"Duration (years)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B24 B17:B19" xr:uid="{00000000-0002-0000-0200-000009000000}">
-      <formula1>"Probability (per year)"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19 B22:B24" xr:uid="{3F928A5F-762D-2A43-A552-6940C5887A31}">
+      <formula1>"Rate (per year)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{9121F75F-0C1D-4144-8483-A21997C16763}">
+      <formula1>"Probability"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3902,18 +3064,18 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3932,7 +3094,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -3950,7 +3112,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>UDT_15-64</v>
@@ -3968,9 +3130,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -3989,7 +3151,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -4007,7 +3169,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>UDT_15-64</v>
@@ -4025,9 +3187,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -4046,7 +3208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -4064,7 +3226,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>UDT_15-64</v>
@@ -4083,52 +3245,28 @@
       <c r="G11" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="153" priority="9">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="expression" dxfId="63" priority="1">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="2">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="61" priority="5">
+      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="6">
+      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="expression" dxfId="59" priority="9">
       <formula>COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>AND(COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="151" priority="11">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="12">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="149" priority="1">
-      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="2">
-      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="147" priority="3">
-      <formula>COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="4">
-      <formula>AND(COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="145" priority="5">
-      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="6">
-      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="143" priority="7">
-      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="8">
-      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4151,18 +3289,18 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -4181,7 +3319,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -4199,7 +3337,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>UDT_15-64</v>
@@ -4217,9 +3355,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -4238,7 +3376,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -4256,7 +3394,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>UDT_15-64</v>
@@ -4274,9 +3412,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -4295,7 +3433,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -4313,7 +3451,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>UDT_15-64</v>
@@ -4332,52 +3470,28 @@
       <c r="G11" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="141" priority="9">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="expression" dxfId="57" priority="1">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="2">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="55" priority="5">
+      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="6">
+      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="expression" dxfId="53" priority="9">
       <formula>COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="10">
+    <cfRule type="expression" dxfId="52" priority="10">
       <formula>AND(COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="139" priority="11">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="12">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="137" priority="1">
-      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="2">
-      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="135" priority="3">
-      <formula>COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="4">
-      <formula>AND(COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="133" priority="5">
-      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="6">
-      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="131" priority="7">
-      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="8">
-      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4400,18 +3514,18 @@
       <selection activeCell="E29" sqref="E29:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4419,18 +3533,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -4439,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
@@ -4453,52 +3567,52 @@
         <v>SIR_15-64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4519,7 +3633,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>SIR_0-4</v>
@@ -4533,7 +3647,7 @@
         <v>SIR_0-4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -4546,7 +3660,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>IF($C$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>SIR_0-4</v>
@@ -4560,7 +3674,7 @@
         <v>SIR_5-14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -4573,7 +3687,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF($D$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>SIR_0-4</v>
@@ -4587,7 +3701,7 @@
         <v>SIR_15-64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -4600,7 +3714,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>IF($B$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>SIR_5-14</v>
@@ -4614,7 +3728,7 @@
         <v>SIR_0-4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -4627,7 +3741,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>SIR_5-14</v>
@@ -4641,7 +3755,7 @@
         <v>SIR_5-14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -4654,7 +3768,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>IF($D$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>SIR_5-14</v>
@@ -4668,7 +3782,7 @@
         <v>SIR_15-64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -4681,7 +3795,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f>IF($B$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>SIR_15-64</v>
@@ -4695,7 +3809,7 @@
         <v>SIR_0-4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4708,7 +3822,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>IF($C$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>SIR_15-64</v>
@@ -4722,7 +3836,7 @@
         <v>SIR_5-14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -4735,7 +3849,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>SIR_15-64</v>
@@ -4749,7 +3863,7 @@
         <v>SIR_15-64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -4762,7 +3876,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -4770,18 +3884,18 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -4790,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -4800,43 +3914,43 @@
         <v>UDT_15-64</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4857,7 +3971,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>IF($B$24="Y",'Population Definitions'!$A$2,"...")</f>
         <v>SIR_0-4</v>
@@ -4871,7 +3985,7 @@
         <v>UDT_0-14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -4884,7 +3998,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>IF($C$24="Y",'Population Definitions'!$A$2,"...")</f>
         <v>SIR_0-4</v>
@@ -4898,7 +4012,7 @@
         <v>UDT_15-64</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="3">
         <v>0.5</v>
@@ -4911,7 +4025,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>IF($B$25="Y",'Population Definitions'!$A$3,"...")</f>
         <v>SIR_5-14</v>
@@ -4925,7 +4039,7 @@
         <v>UDT_0-14</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -4938,7 +4052,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>IF($C$25="Y",'Population Definitions'!$A$3,"...")</f>
         <v>SIR_5-14</v>
@@ -4952,7 +4066,7 @@
         <v>UDT_15-64</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -4965,7 +4079,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f>IF($B$26="Y",'Population Definitions'!$A$4,"...")</f>
         <v>SIR_15-64</v>
@@ -4979,7 +4093,7 @@
         <v>UDT_0-14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -4992,7 +4106,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f>IF($C$26="Y",'Population Definitions'!$A$4,"...")</f>
         <v>SIR_15-64</v>
@@ -5006,7 +4120,7 @@
         <v>UDT_15-64</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -5020,319 +4134,111 @@
       <c r="I34" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="129" priority="46" operator="equal">
+  <conditionalFormatting sqref="B24:C26">
+    <cfRule type="cellIs" dxfId="51" priority="47" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="47" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D7">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="127" priority="50" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="51" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="125" priority="54" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="55" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="121" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="14" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="117" priority="48" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="49" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="115" priority="52" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="53" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="113" priority="56" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="57" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="111" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="4" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="109" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="10" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="107" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10:I10">
-    <cfRule type="expression" dxfId="105" priority="21">
+    <cfRule type="expression" dxfId="47" priority="21">
       <formula>$B$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="expression" dxfId="104" priority="24">
+    <cfRule type="expression" dxfId="46" priority="24">
       <formula>$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:I12">
-    <cfRule type="expression" dxfId="103" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:I13">
-    <cfRule type="expression" dxfId="102" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>$B$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:I14">
-    <cfRule type="expression" dxfId="101" priority="33">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:I15">
-    <cfRule type="expression" dxfId="100" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:I16">
-    <cfRule type="expression" dxfId="99" priority="39">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>$B$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:I17">
-    <cfRule type="expression" dxfId="98" priority="42">
+    <cfRule type="expression" dxfId="40" priority="42">
       <formula>$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:I18">
-    <cfRule type="expression" dxfId="97" priority="45">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:I29">
-    <cfRule type="expression" dxfId="96" priority="60">
+    <cfRule type="expression" dxfId="38" priority="60">
       <formula>$B$24&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:I30">
-    <cfRule type="expression" dxfId="95" priority="63">
+    <cfRule type="expression" dxfId="37" priority="63">
       <formula>$C$24&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:I31">
-    <cfRule type="expression" dxfId="94" priority="66">
+    <cfRule type="expression" dxfId="36" priority="66">
       <formula>$B$25&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:I32">
-    <cfRule type="expression" dxfId="93" priority="69">
+    <cfRule type="expression" dxfId="35" priority="69">
       <formula>$C$25&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:I33">
-    <cfRule type="expression" dxfId="92" priority="72">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>$B$26&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:I34">
-    <cfRule type="expression" dxfId="91" priority="75">
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>$C$26&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="86" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="84" priority="19">
+  <conditionalFormatting sqref="E10:E18">
+    <cfRule type="expression" dxfId="32" priority="20">
+      <formula>AND(COUNTIF(G10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>COUNTIF(G10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="20">
-      <formula>AND(COUNTIF(G10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="82" priority="22">
-      <formula>COUNTIF(G11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="23">
-      <formula>AND(COUNTIF(G11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="80" priority="25">
-      <formula>COUNTIF(G12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="26">
-      <formula>AND(COUNTIF(G12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="78" priority="28">
-      <formula>COUNTIF(G13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="29">
-      <formula>AND(COUNTIF(G13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="76" priority="31">
-      <formula>COUNTIF(G14:I14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="32">
-      <formula>AND(COUNTIF(G14:I14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="74" priority="34">
-      <formula>COUNTIF(G15:I15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="35">
-      <formula>AND(COUNTIF(G15:I15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="72" priority="37">
-      <formula>COUNTIF(G16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="38">
-      <formula>AND(COUNTIF(G16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="70" priority="40">
-      <formula>COUNTIF(G17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="41">
-      <formula>AND(COUNTIF(G17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="68" priority="43">
-      <formula>COUNTIF(G18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="44">
-      <formula>AND(COUNTIF(G18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="66" priority="58">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E34">
+    <cfRule type="expression" dxfId="30" priority="59">
+      <formula>AND(COUNTIF(G29:I29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="58">
       <formula>COUNTIF(G29:I29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="59">
-      <formula>AND(COUNTIF(G29:I29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="64" priority="61">
-      <formula>COUNTIF(G30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="62">
-      <formula>AND(COUNTIF(G30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>COUNTIF(G31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="65">
-      <formula>AND(COUNTIF(G31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="60" priority="67">
-      <formula>COUNTIF(G32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="68">
-      <formula>AND(COUNTIF(G32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="58" priority="70">
-      <formula>COUNTIF(G33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="71">
-      <formula>AND(COUNTIF(G33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="56" priority="73">
-      <formula>COUNTIF(G34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="74">
-      <formula>AND(COUNTIF(G34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5373,18 +4279,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="9" width="9.42578125" customWidth="1"/>
+    <col min="7" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5392,18 +4298,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -5412,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
@@ -5426,52 +4332,52 @@
         <v>SIR_15-64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>SIR_0-4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>SIR_5-14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>SIR_15-64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5492,7 +4398,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -5515,7 +4421,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>IF($C$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -5538,7 +4444,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>IF($D$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -5561,7 +4467,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>IF($B$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -5584,7 +4490,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -5607,7 +4513,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>IF($D$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -5630,7 +4536,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f>IF($B$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -5653,7 +4559,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>IF($C$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -5676,7 +4582,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -5699,7 +4605,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -5707,18 +4613,18 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -5727,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
@@ -5737,31 +4643,31 @@
         <v>UDT_15-64</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>UDT_0-14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>UDT_15-64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5782,7 +4688,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f>IF($B$24="Y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -5805,7 +4711,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>IF($C$24="Y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -5828,7 +4734,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>IF($B$25="Y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -5851,7 +4757,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>IF($C$25="Y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -5875,237 +4781,133 @@
       <c r="I31" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="41" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10:I10">
-    <cfRule type="expression" dxfId="42" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$B$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="expression" dxfId="41" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:I12">
-    <cfRule type="expression" dxfId="40" priority="21">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:I13">
-    <cfRule type="expression" dxfId="39" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>$B$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:I14">
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:I15">
-    <cfRule type="expression" dxfId="37" priority="30">
+    <cfRule type="expression" dxfId="11" priority="30">
       <formula>$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:I16">
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="10" priority="33">
       <formula>$B$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:I17">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="9" priority="36">
       <formula>$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:I18">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="8" priority="39">
       <formula>$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:I28">
-    <cfRule type="expression" dxfId="33" priority="46">
+    <cfRule type="expression" dxfId="7" priority="46">
       <formula>$B$24&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:I29">
-    <cfRule type="expression" dxfId="32" priority="49">
+    <cfRule type="expression" dxfId="6" priority="49">
       <formula>$C$24&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:I30">
-    <cfRule type="expression" dxfId="31" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>$B$25&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:I31">
-    <cfRule type="expression" dxfId="30" priority="55">
+    <cfRule type="expression" dxfId="4" priority="55">
       <formula>$C$25&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="25" priority="13">
+  <conditionalFormatting sqref="E10:E18">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>COUNTIF(G10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>AND(COUNTIF(G10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="23" priority="16">
-      <formula>COUNTIF(G11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
-      <formula>AND(COUNTIF(G11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>COUNTIF(G12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>AND(COUNTIF(G12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>COUNTIF(G13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23">
-      <formula>AND(COUNTIF(G13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>COUNTIF(G14:I14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26">
-      <formula>AND(COUNTIF(G14:I14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="15" priority="28">
-      <formula>COUNTIF(G15:I15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="29">
-      <formula>AND(COUNTIF(G15:I15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="13" priority="31">
-      <formula>COUNTIF(G16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="32">
-      <formula>AND(COUNTIF(G16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="11" priority="34">
-      <formula>COUNTIF(G17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="35">
-      <formula>AND(COUNTIF(G17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="9" priority="37">
-      <formula>COUNTIF(G18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="38">
-      <formula>AND(COUNTIF(G18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="7" priority="44">
+  <conditionalFormatting sqref="E28:E31">
+    <cfRule type="expression" dxfId="1" priority="45">
+      <formula>AND(COUNTIF(G28:I28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="44">
       <formula>COUNTIF(G28:I28,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="45">
-      <formula>AND(COUNTIF(G28:I28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="5" priority="47">
-      <formula>COUNTIF(G29:I29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="48">
-      <formula>AND(COUNTIF(G29:I29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="3" priority="50">
-      <formula>COUNTIF(G30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>AND(COUNTIF(G30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="1" priority="53">
-      <formula>COUNTIF(G31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="54">
-      <formula>AND(COUNTIF(G31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
